--- a/Data/EC/NIT-9011996990.xlsx
+++ b/Data/EC/NIT-9011996990.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D08E0D2-3064-4498-820F-0BCA46133DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9A0A4F-7227-4146-B522-B2C86E238EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D7C49D71-5D62-49BE-8339-22419B538282}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1406053-4E0D-4873-A09D-C117F405E96C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,13 +71,13 @@
     <t>JHONNY BAUTISTA RAMOS</t>
   </si>
   <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>73229999</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL QUINTANA BLANCO</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1047463183</t>
+  </si>
+  <si>
+    <t>HECTOR ENRIQUE ANCHICO FERRER</t>
   </si>
   <si>
     <t>1100893238</t>
@@ -110,12 +110,6 @@
     <t>RAUL DANIEL PEREZ APARICIO</t>
   </si>
   <si>
-    <t>1002413474</t>
-  </si>
-  <si>
-    <t>LUIS JAVIER QUINTANA CONTRERAS</t>
-  </si>
-  <si>
     <t>1066000009</t>
   </si>
   <si>
@@ -134,10 +128,10 @@
     <t>YEIMER VELASQUEZ VERGARA</t>
   </si>
   <si>
-    <t>1007901913</t>
-  </si>
-  <si>
-    <t>DIEGO ANDRES SALTARIN PUELLO</t>
+    <t>1049535855</t>
+  </si>
+  <si>
+    <t>ALVARO JAVIER MERLANO BELTRAN</t>
   </si>
   <si>
     <t>1043973056</t>
@@ -156,6 +150,12 @@
   </si>
   <si>
     <t>JUAN SEBASTIAN REALES CERVANTES</t>
+  </si>
+  <si>
+    <t>1002316998</t>
+  </si>
+  <si>
+    <t>DAISVER AYOLA SERPA</t>
   </si>
   <si>
     <t>PPT</t>
@@ -275,7 +275,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -288,9 +290,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -490,23 +490,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,10 +534,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A56432-E522-2672-9904-CB43AF42EA1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A643C76-C881-1ABF-225B-FB1726BF34E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D0CA93-8378-4327-9D2C-157361A76966}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104D4591-C39E-4C21-8B78-56D5841283F4}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1048,7 +1048,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>932564</v>
+        <v>954048</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1142,10 +1142,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>51246</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1280,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>7592</v>
+        <v>64046</v>
       </c>
       <c r="G23" s="18">
-        <v>1423500</v>
+        <v>1601173</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1303,10 +1303,10 @@
         <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>64046</v>
+        <v>56940</v>
       </c>
       <c r="G24" s="18">
-        <v>1601173</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1349,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>56940</v>
+        <v>51246</v>
       </c>
       <c r="G26" s="18">
         <v>1423500</v>
@@ -1372,10 +1372,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>26572</v>
+        <v>14834</v>
       </c>
       <c r="G27" s="18">
-        <v>1423500</v>
+        <v>1589414</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1395,10 +1395,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>63576</v>
+        <v>65700</v>
       </c>
       <c r="G28" s="18">
-        <v>1589414</v>
+        <v>1642500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1418,10 +1418,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>65700</v>
+        <v>56940</v>
       </c>
       <c r="G29" s="18">
-        <v>1642500</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1441,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>5694</v>
       </c>
       <c r="G30" s="18">
         <v>1423500</v>
@@ -1510,7 +1510,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="24">
-        <v>3796</v>
+        <v>56940</v>
       </c>
       <c r="G33" s="24">
         <v>1423500</v>
